--- a/zhf_extracted.xlsx
+++ b/zhf_extracted.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meganbittner/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285AF9A4-142B-1A48-8D10-C1532BDBC812}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A703D6C-4F8F-7A45-9326-1D8F1E8098E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{84A3BBF5-6C2D-4B92-911F-F3D9BD721ABC}"/>
+    <workbookView xWindow="12780" yWindow="0" windowWidth="12820" windowHeight="16000" xr2:uid="{84A3BBF5-6C2D-4B92-911F-F3D9BD721ABC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="87">
   <si>
     <t>n</t>
   </si>
@@ -231,9 +231,6 @@
     <t>Cytoreductive Surgery and Hyperthermic Intraperitoneal Chemotherapy</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>comments</t>
   </si>
   <si>
@@ -262,6 +259,39 @@
   </si>
   <si>
     <t>n_count</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Funding/equipment/conflict with ZHF company</t>
+  </si>
+  <si>
+    <t>This study was supported by  University Hospital of Poitiers and the SpotON temperature sensors and monitors were provided by 3M.</t>
+  </si>
+  <si>
+    <t>SpotOn temperature sensores were provided by 3M</t>
+  </si>
+  <si>
+    <t>3M Canada sponsered the trial and provided the Bair Hugger core temperature monitoring system and sensors. Dan Mores from 3M provided the statistical analysis</t>
+  </si>
+  <si>
+    <t>Author MTM has been a member of  3M patient temeprature management advisory board until the end of 2016</t>
+  </si>
+  <si>
+    <t>Author MTM is a member of  3M patient temeprature management advisory board, the study was investigator initiated, SpotOn monitoring system was supplied by 3M</t>
+  </si>
+  <si>
+    <t>Author C. Mark Harper has received loans of equipment from various amnufacturers of warming devices including 3M, he also received expenses and honoraria for sitting on 3M advisory board</t>
+  </si>
+  <si>
+    <t>Funded by 3M, author Sessler serves on two 3M advisory boards and conducts sponsored trials for 3M and other companies that manufacture temperature monitor and measurement systems</t>
+  </si>
+  <si>
+    <t>Author Mimoz received funding from 3M</t>
+  </si>
+  <si>
+    <t>Funding/equipment/conflict comment</t>
   </si>
 </sst>
 </file>
@@ -337,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -374,6 +404,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -692,11 +731,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1417502-1DEB-4627-92B2-5D141BD6BA90}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -716,14 +755,15 @@
     <col min="15" max="15" width="15.6640625" style="6" customWidth="1"/>
     <col min="16" max="16" width="16.1640625" style="6" customWidth="1"/>
     <col min="17" max="17" width="8.83203125" style="6"/>
+    <col min="18" max="18" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="10" t="s">
         <v>0</v>
@@ -753,10 +793,10 @@
         <v>39</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>41</v>
@@ -770,18 +810,24 @@
       <c r="Q1" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R1" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="16">
         <v>103</v>
       </c>
       <c r="C2" s="5">
         <v>103</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="16">
         <v>35717</v>
       </c>
       <c r="E2">
@@ -806,10 +852,10 @@
         <v>59</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>28</v>
@@ -823,12 +869,18 @@
       <c r="Q2" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R2" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="16">
         <v>103</v>
       </c>
       <c r="C3" s="5">
@@ -859,7 +911,7 @@
         <v>59</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M3" s="13" t="s">
         <v>3</v>
@@ -876,8 +928,14 @@
       <c r="Q3" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R3" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
@@ -929,12 +987,18 @@
       <c r="Q4" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="R4" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="16">
         <v>83</v>
       </c>
       <c r="C5" s="5">
@@ -964,7 +1028,9 @@
       <c r="K5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="13"/>
+      <c r="L5" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M5" s="13" t="s">
         <v>3</v>
       </c>
@@ -980,8 +1046,14 @@
       <c r="Q5" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="R5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>49</v>
       </c>
@@ -1015,8 +1087,8 @@
       <c r="K6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="14" t="s">
-        <v>66</v>
+      <c r="L6" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>3</v>
@@ -1033,8 +1105,14 @@
       <c r="Q6" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R6" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>53</v>
       </c>
@@ -1065,6 +1143,9 @@
       <c r="K7" t="s">
         <v>60</v>
       </c>
+      <c r="L7" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M7" s="13" t="s">
         <v>3</v>
       </c>
@@ -1080,8 +1161,14 @@
       <c r="Q7" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1113,7 +1200,7 @@
         <v>59</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>3</v>
@@ -1130,12 +1217,18 @@
       <c r="Q8" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="16">
         <v>15</v>
       </c>
       <c r="C9" s="5">
@@ -1163,7 +1256,7 @@
         <v>59</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M9" s="13" t="s">
         <v>3</v>
@@ -1180,8 +1273,14 @@
       <c r="Q9" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>43</v>
       </c>
@@ -1216,7 +1315,7 @@
         <v>9</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>3</v>
@@ -1233,8 +1332,14 @@
       <c r="Q10" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R10" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
@@ -1266,7 +1371,7 @@
         <v>9</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M11" s="13" t="s">
         <v>3</v>
@@ -1283,8 +1388,14 @@
       <c r="Q11" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R11" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -1319,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>3</v>
@@ -1336,8 +1447,14 @@
       <c r="Q12" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R12" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>43</v>
       </c>
@@ -1369,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>3</v>
@@ -1386,8 +1503,14 @@
       <c r="Q13" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R13" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>54</v>
       </c>
@@ -1418,6 +1541,9 @@
       <c r="K14" t="s">
         <v>10</v>
       </c>
+      <c r="L14" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M14" s="13" t="s">
         <v>3</v>
       </c>
@@ -1433,12 +1559,18 @@
       <c r="Q14" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R14" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="16">
         <v>29</v>
       </c>
       <c r="C15" s="5">
@@ -1465,6 +1597,9 @@
       <c r="K15" t="s">
         <v>10</v>
       </c>
+      <c r="L15" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M15" s="13" t="s">
         <v>3</v>
       </c>
@@ -1480,8 +1615,14 @@
       <c r="Q15" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R15" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -1515,6 +1656,9 @@
       <c r="K16" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="L16" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M16" s="13" t="s">
         <v>3</v>
       </c>
@@ -1530,12 +1674,15 @@
       <c r="Q16" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="R16" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="16">
         <v>7</v>
       </c>
       <c r="C17" s="5">
@@ -1565,7 +1712,9 @@
       <c r="K17" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="13"/>
+      <c r="L17" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M17" s="13" t="s">
         <v>61</v>
       </c>
@@ -1581,8 +1730,14 @@
       <c r="Q17" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>45</v>
       </c>
@@ -1616,6 +1771,9 @@
       <c r="K18" t="s">
         <v>64</v>
       </c>
+      <c r="L18" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M18" s="13" t="s">
         <v>61</v>
       </c>
@@ -1631,8 +1789,14 @@
       <c r="Q18" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S18" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>48</v>
       </c>
@@ -1666,6 +1830,9 @@
       <c r="K19" t="s">
         <v>63</v>
       </c>
+      <c r="L19" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M19" s="13" t="s">
         <v>61</v>
       </c>
@@ -1681,8 +1848,12 @@
       <c r="Q19" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S19" s="20"/>
+    </row>
+    <row r="20" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
@@ -1716,6 +1887,9 @@
       <c r="K20" t="s">
         <v>20</v>
       </c>
+      <c r="L20" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M20" s="13" t="s">
         <v>3</v>
       </c>
@@ -1731,8 +1905,14 @@
       <c r="Q20" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="S20" s="20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>51</v>
       </c>
@@ -1766,6 +1946,9 @@
       <c r="K21" t="s">
         <v>61</v>
       </c>
+      <c r="L21" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M21" s="13" t="s">
         <v>61</v>
       </c>
@@ -1781,8 +1964,11 @@
       <c r="Q21" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R21" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
@@ -1816,6 +2002,9 @@
       <c r="K22" t="s">
         <v>14</v>
       </c>
+      <c r="L22" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M22" s="13" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +2020,11 @@
       <c r="Q22" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R22" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -1866,6 +2058,9 @@
       <c r="K23" t="s">
         <v>15</v>
       </c>
+      <c r="L23" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M23" s="13" t="s">
         <v>61</v>
       </c>
@@ -1881,8 +2076,11 @@
       <c r="Q23" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R23" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
@@ -1916,6 +2114,9 @@
       <c r="K24" t="s">
         <v>15</v>
       </c>
+      <c r="L24" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M24" s="13" t="s">
         <v>61</v>
       </c>
@@ -1931,8 +2132,11 @@
       <c r="Q24" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R24" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1966,6 +2170,9 @@
       <c r="K25" t="s">
         <v>21</v>
       </c>
+      <c r="L25" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M25" s="15" t="s">
         <v>3</v>
       </c>
@@ -1981,8 +2188,11 @@
       <c r="Q25" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R25" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
@@ -2031,8 +2241,11 @@
       <c r="Q26" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R26" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>57</v>
       </c>
@@ -2078,8 +2291,11 @@
       <c r="Q27" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R27" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>57</v>
       </c>
@@ -2125,8 +2341,11 @@
       <c r="Q28" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R28" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>58</v>
       </c>
@@ -2160,6 +2379,9 @@
       <c r="K29" t="s">
         <v>19</v>
       </c>
+      <c r="L29" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M29" s="15" t="s">
         <v>3</v>
       </c>
@@ -2175,8 +2397,14 @@
       <c r="Q29" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R29" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>58</v>
       </c>
@@ -2210,6 +2438,9 @@
       <c r="K30" t="s">
         <v>19</v>
       </c>
+      <c r="L30" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M30" s="15" t="s">
         <v>3</v>
       </c>
@@ -2225,8 +2456,14 @@
       <c r="Q30" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" ht="16" x14ac:dyDescent="0.2">
+      <c r="R30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="S30" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>47</v>
       </c>
@@ -2260,6 +2497,9 @@
       <c r="K31" t="s">
         <v>19</v>
       </c>
+      <c r="L31" s="13" t="s">
+        <v>76</v>
+      </c>
       <c r="M31" s="15" t="s">
         <v>3</v>
       </c>
@@ -2274,6 +2514,15 @@
       </c>
       <c r="Q31" s="6" t="s">
         <v>28</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="5">
+        <f>SUM(D3:D31)</f>
+        <v>312371</v>
       </c>
     </row>
   </sheetData>
